--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TranningMutiValueToCell</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>抽象Cell.Active&amp;Cell.Tran</t>
+  </si>
+  <si>
+    <t>重复训练</t>
+  </si>
+  <si>
+    <t>Bulge.Reset</t>
+  </si>
+  <si>
+    <t>重构channal.Active</t>
+  </si>
+  <si>
+    <t>ApplyTranning</t>
+  </si>
+  <si>
+    <t>多次训练取均值</t>
+  </si>
+  <si>
+    <t>重构：取消ACell</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="53.8888888888889" customWidth="1"/>
   </cols>
@@ -1054,14 +1072,47 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TranningMutiValueToCell</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>重构：取消ACell</t>
+  </si>
+  <si>
+    <t>移动cell.deltaBias</t>
+  </si>
+  <si>
+    <t>重构channal</t>
+  </si>
+  <si>
+    <t>连接channal，cellchannal</t>
+  </si>
+  <si>
+    <t>移动onactive</t>
+  </si>
+  <si>
+    <t>移动cell.trancount</t>
+  </si>
+  <si>
+    <t>移动cell.bias</t>
+  </si>
+  <si>
+    <t>cellchannal.reset</t>
+  </si>
+  <si>
+    <t>移动bulge.tranCount</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1107,12 +1131,49 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="30720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TranningMutiValueToCell</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>移动bulge.tranCount</t>
+  </si>
+  <si>
+    <t>Traner.addsample</t>
+  </si>
+  <si>
+    <t>Traner.tran</t>
+  </si>
+  <si>
+    <t>Traner.setnet</t>
+  </si>
+  <si>
+    <t>NNet.AddInput</t>
+  </si>
+  <si>
+    <t>NNet.AddOutput</t>
+  </si>
+  <si>
+    <t>NNet.Active</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1126,7 +1144,7 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1146,7 +1164,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1173,6 +1191,36 @@
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13140"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,14 +117,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -582,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,33 +586,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,108 +625,102 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1074,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1144,7 +1133,7 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TranningMutiValueToCell</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>NNet.Active</t>
+  </si>
+  <si>
+    <t>Cell.active</t>
+  </si>
+  <si>
+    <t>延迟unit.cell设置</t>
+  </si>
+  <si>
+    <t>分离channal active信息与unit.功能</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1210,6 +1219,21 @@
     <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TranningMutiValueToCell</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>分离channal active信息与unit.功能</t>
+  </si>
+  <si>
+    <t>重构CellContainer</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -583,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,34 +606,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,102 +642,108 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1094,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -1232,8 +1246,13 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TranningMutiValueToCell</t>
   </si>
   <si>
-    <t>TranningCellToMutiCell</t>
-  </si>
-  <si>
-    <t>TranningMutiLevel</t>
-  </si>
-  <si>
     <t>重构AddInput</t>
   </si>
   <si>
@@ -106,6 +100,15 @@
   </si>
   <si>
     <t>重构CellContainer</t>
+  </si>
+  <si>
+    <t>分离channal action</t>
+  </si>
+  <si>
+    <t>延迟unit.bulge设置</t>
+  </si>
+  <si>
+    <t>tranningcell.difference</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.15"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -594,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,34 +616,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,98 +652,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +754,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1111,12 +1127,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1196,12 +1212,12 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1226,12 +1242,12 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1246,13 +1262,18 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TestList.xlsx
+++ b/TestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>TranningMutiValueToCell</t>
   </si>
@@ -109,6 +109,45 @@
   </si>
   <si>
     <t>tranningcell.difference</t>
+  </si>
+  <si>
+    <t>当tranner添加输入节点，会添加成功，使输入数量+1</t>
+  </si>
+  <si>
+    <t>当tranner添加输出节点，会添加成功，使输出数量+1</t>
+  </si>
+  <si>
+    <t>当tranner添加与输入输出数量不符的采样，会产生异常</t>
+  </si>
+  <si>
+    <t>当tranner添加与输入输出数量相符的采样，会成功，并使采样数量+1</t>
+  </si>
+  <si>
+    <t>当errormax&lt;threadhold且循环次数&lt;=最大次数,会训练成功</t>
+  </si>
+  <si>
+    <t>当循环次数&gt;最大次数,会训练失败,并产生失败信息</t>
+  </si>
+  <si>
+    <t>error=所有tranningcell.difference的和/2</t>
+  </si>
+  <si>
+    <t>errormax=max（上次训练循环errormax， 本次训练循环error）</t>
+  </si>
+  <si>
+    <t>当tranner.tran（），会先为输出节点创建tranningcell，数量=输出数量</t>
+  </si>
+  <si>
+    <t>在一次训练循环中，当采样的输入值1，输入节点的value应为1，输出节点同理</t>
+  </si>
+  <si>
+    <t>在一次训练循环中，tranningcell.tran()</t>
+  </si>
+  <si>
+    <t>在一次训练循环中，会计算errormax</t>
+  </si>
+  <si>
+    <t>在训练循环结束后，当未成功，会tranningcell.apply()</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="$A19:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1286,14 +1325,83 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="84.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:1">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="13" customHeight="1" spans="1:1">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="13" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
